--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maaz/Desktop/Smart_Scheduler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Desktop\Smart_Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1356FC-02C3-4145-A4FA-9EC488E0ED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" activeTab="4" xr2:uid="{0C1CC655-5748-A74C-ABA1-F0694CBE576F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Admin Module Details" sheetId="5" r:id="rId5"/>
     <sheet name="Additional Info" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
-  <si>
-    <t>Teachers</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
   <si>
     <t>Rooms</t>
   </si>
@@ -60,9 +56,6 @@
     <t>creditHours</t>
   </si>
   <si>
-    <t>teacherID</t>
-  </si>
-  <si>
     <t>courseID</t>
   </si>
   <si>
@@ -78,9 +71,6 @@
     <t>Select year and then select className according to this year. Show all courses in one Table with their Room Numbers, courseTitle, CourseCode, InstructorName and show Text "This Slot is Free" where no course found and show Break for break time</t>
   </si>
   <si>
-    <t>Select its year and enter its Name. Show all courses in one Table with their Room Numbers, Classname, Semester, courseTitle, CourseCode, show Text "This Slot is Free" where no course found and show Break</t>
-  </si>
-  <si>
     <t>Admin Panel</t>
   </si>
   <si>
@@ -231,12 +221,6 @@
     <t>section</t>
   </si>
   <si>
-    <t>Sting</t>
-  </si>
-  <si>
-    <t>Primary Key &amp; Foreign key From Users_Table</t>
-  </si>
-  <si>
     <t>cnic</t>
   </si>
   <si>
@@ -249,13 +233,82 @@
     <t>User Login with their email  using Continue with Google</t>
   </si>
   <si>
-    <t>User Login with their unique email  using Continue with Google</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Search filter for course wise</t>
+  </si>
+  <si>
+    <t>Search or filter by datewise and issue wise</t>
+  </si>
+  <si>
+    <t>Seacrh filter by course wise</t>
+  </si>
+  <si>
+    <t>Search filter by datewise and issue wise</t>
+  </si>
+  <si>
+    <t>Select its year and enter its Name. Show all its own courses in one Table with their Room Numbers, Classname, Semester, courseTitle, CourseCode, show Text "This Slot is Free" where no course found and show Break</t>
+  </si>
+  <si>
+    <t>Admin Login with their unique email  using Continue with Google</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Topbar -&gt; header searchbar,</t>
+  </si>
+  <si>
+    <t>InstituteInformation</t>
+  </si>
+  <si>
+    <t>instituteID</t>
+  </si>
+  <si>
+    <t>instituteName</t>
+  </si>
+  <si>
+    <t>instituteLogo</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>BSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size limit </t>
+  </si>
+  <si>
+    <t>Foreign Key from IntituteInformation</t>
+  </si>
+  <si>
+    <t>InstitutePayment</t>
+  </si>
+  <si>
+    <t>paymentID</t>
+  </si>
+  <si>
+    <t>Monthly/ Yearly</t>
+  </si>
+  <si>
+    <t>paymentDate</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -373,17 +426,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,7 +454,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -717,29 +770,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000775B3-123D-904D-8290-92DF2B6E0F9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:Y37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.58203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.83203125" bestFit="1" customWidth="1"/>
@@ -748,319 +801,315 @@
     <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="7" t="s">
+    <row r="2" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="N2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="R2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="O5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="5" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J7" s="5" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="L7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="R9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="2:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1068,24 +1117,12 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1093,21 +1130,9 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1120,7 +1145,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1129,10 +1154,6 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1145,7 +1166,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1170,11 +1191,13 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1192,41 +1215,38 @@
       <c r="T16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="2:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+    <row r="17" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="R17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="X18" s="5"/>
-    </row>
-    <row r="19" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1234,161 +1254,150 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="R22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="T22" s="5"/>
-      <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1396,24 +1405,12 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1422,24 +1419,9 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1448,24 +1430,9 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1491,7 +1458,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1517,7 +1484,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1543,12 +1510,12 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+    <row r="33" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1571,10 +1538,10 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+    <row r="34" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1597,7 +1564,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1623,15 +1590,15 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B36" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1655,39 +1622,40 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="R2:T3"/>
+  <mergeCells count="9">
     <mergeCell ref="B33:D34"/>
     <mergeCell ref="B17:D18"/>
     <mergeCell ref="F17:H18"/>
     <mergeCell ref="F2:H3"/>
     <mergeCell ref="B2:D3"/>
+    <mergeCell ref="N2:P3"/>
+    <mergeCell ref="R2:T3"/>
     <mergeCell ref="J2:L3"/>
+    <mergeCell ref="R17:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0CA698-F333-3945-869B-0CA9C9DA2912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="69" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
@@ -1695,124 +1663,124 @@
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="2"/>
       <c r="E9" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="D10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="J10" s="16" t="s">
-        <v>21</v>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="2"/>
       <c r="E11" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1821,16 +1789,16 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1839,14 +1807,14 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1854,15 +1822,17 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="L14" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="6"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1874,7 +1844,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1890,7 +1860,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1906,7 +1876,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1922,7 +1892,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1938,7 +1908,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1954,7 +1924,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1970,7 +1940,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1986,7 +1956,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2002,7 +1972,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2018,7 +1988,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2034,7 +2004,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2050,7 +2020,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2066,7 +2036,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2082,7 +2052,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2118,166 +2088,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A5FE31-658B-E346-B3C2-9135BA0DE119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:R18"/>
+  <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="78" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="E5" s="12" t="s">
+    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H5:I11"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="E5:F18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB163313-2591-B649-8BA3-DBE45ED457C2}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:R20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -2296,7 +2119,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -2315,180 +2138,497 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="K5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H5:I11"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="E5:F18"/>
+    <mergeCell ref="E20:F33"/>
+    <mergeCell ref="H13:I26"/>
+    <mergeCell ref="K5:L11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:R27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="66" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="20" spans="5:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="5:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B2:R3"/>
     <mergeCell ref="H5:I11"/>
     <mergeCell ref="B5:C7"/>
     <mergeCell ref="E5:F18"/>
+    <mergeCell ref="E21:F27"/>
+    <mergeCell ref="H14:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9265C04-B3C1-A14C-803B-42CD1F65466B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="60" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:R3"/>
     <mergeCell ref="B5:C7"/>
+    <mergeCell ref="E5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA0C423-C092-6542-B174-CF5F3505AA11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="C4:G11"/>
   <sheetViews>
@@ -2496,50 +2636,50 @@
       <selection activeCell="C4" sqref="C4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="15"/>
+    <row r="4" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+    <row r="5" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+    <row r="6" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+    <row r="7" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>

--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Desktop\Smart_Scheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maaz/Desktop/Smart_Scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EBD65E-1692-4D41-A97C-5A6CFDF8D72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -24,22 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
   <si>
     <t>Rooms</t>
   </si>
@@ -170,9 +161,6 @@
     <t>Yes/No</t>
   </si>
   <si>
-    <t>Use Google Authentication for login</t>
-  </si>
-  <si>
     <t>issue</t>
   </si>
   <si>
@@ -233,9 +221,6 @@
     <t>User Login with their email  using Continue with Google</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Search filter for course wise</t>
   </si>
   <si>
@@ -303,12 +288,27 @@
   </si>
   <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>Foreign Key from FeedBack</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>InstituteTime</t>
+  </si>
+  <si>
+    <t>timeID</t>
+  </si>
+  <si>
+    <t>days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -426,11 +426,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -451,10 +453,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,15 +769,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:Y37"/>
+  <dimension ref="B2:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8:X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
@@ -792,60 +791,68 @@
     <col min="12" max="12" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="8" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="V2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -858,8 +865,11 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
@@ -871,7 +881,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>35</v>
@@ -880,7 +890,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>35</v>
@@ -889,7 +899,7 @@
         <v>38</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>35</v>
@@ -907,8 +917,17 @@
       <c r="T5" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="V5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
@@ -918,20 +937,20 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>7</v>
@@ -942,16 +961,25 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
@@ -961,16 +989,16 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>40</v>
@@ -983,58 +1011,74 @@
         <v>36</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>36</v>
@@ -1042,7 +1086,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>36</v>
@@ -1056,14 +1100,17 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1075,13 +1122,13 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1090,35 +1137,41 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="R11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1131,7 +1184,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1145,7 +1198,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1166,7 +1219,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1191,13 +1244,11 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1215,52 +1266,63 @@
       <c r="T16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="5"/>
-      <c r="R17" s="8" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="R17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="I18" s="5"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>35</v>
@@ -1268,14 +1330,23 @@
       <c r="D20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="J20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="R20" s="5" t="s">
@@ -1288,22 +1359,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="J21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="O21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="P21" s="5"/>
       <c r="R21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1311,25 +1397,25 @@
         <v>36</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="J22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="O22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="P22" s="5"/>
       <c r="R22" s="5" t="s">
         <v>8</v>
       </c>
@@ -1339,24 +1425,24 @@
       <c r="T22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="J23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="O23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="R23" s="5" t="s">
@@ -1366,38 +1452,59 @@
         <v>35</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+    <row r="24" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="J24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+    <row r="25" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1410,7 +1517,7 @@
       <c r="U27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1421,7 +1528,7 @@
       <c r="I28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1432,7 +1539,7 @@
       <c r="I29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1458,7 +1565,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1484,7 +1591,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1510,12 +1617,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+    <row r="33" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1538,10 +1640,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+    <row r="34" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1564,10 +1663,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+    <row r="35" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1590,16 +1686,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>38</v>
-      </c>
+    <row r="36" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -1622,32 +1709,25 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="B2:D3"/>
+  <mergeCells count="10">
+    <mergeCell ref="V2:X3"/>
     <mergeCell ref="N2:P3"/>
     <mergeCell ref="R2:T3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="R17:T18"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="N17:P18"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="B2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O29"/>
   <sheetViews>
@@ -1655,7 +1735,7 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
@@ -1663,7 +1743,7 @@
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
@@ -1680,7 +1760,7 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1695,7 +1775,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1793,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="E7" s="12"/>
@@ -1725,7 +1805,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1738,18 +1818,18 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="2"/>
@@ -1760,7 +1840,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1780,7 +1860,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1798,7 +1878,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1814,7 +1894,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1823,7 +1903,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>21</v>
@@ -1832,7 +1912,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1844,7 +1924,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1860,7 +1940,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1876,7 +1956,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1892,7 +1972,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1908,7 +1988,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1924,7 +2004,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1940,7 +2020,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1956,7 +2036,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1972,7 +2052,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1988,7 +2068,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2004,7 +2084,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2020,7 +2100,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2036,7 +2116,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2052,7 +2132,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2088,7 +2168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:R33"/>
   <sheetViews>
@@ -2096,9 +2176,9 @@
       <selection activeCell="K5" sqref="K5:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2199,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -2138,12 +2218,12 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="13"/>
       <c r="E5" s="13" t="s">
@@ -2155,11 +2235,11 @@
       </c>
       <c r="I5" s="13"/>
       <c r="K5" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="E6" s="13"/>
@@ -2169,7 +2249,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="E7" s="13"/>
@@ -2179,7 +2259,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="H8" s="13"/>
@@ -2187,7 +2267,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="H9" s="13"/>
@@ -2195,7 +2275,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="H10" s="13"/>
@@ -2203,7 +2283,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="H11" s="13"/>
@@ -2211,121 +2291,121 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E20" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
@@ -2344,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:R27"/>
   <sheetViews>
@@ -2352,9 +2432,9 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
@@ -2375,7 +2455,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2394,16 +2474,16 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="13"/>
       <c r="H5" s="13" t="s">
@@ -2411,7 +2491,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="E6" s="13"/>
@@ -2419,7 +2499,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="E7" s="13"/>
@@ -2427,105 +2507,105 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="5:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E21" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
@@ -2543,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:R7"/>
   <sheetViews>
@@ -2551,9 +2631,9 @@
       <selection activeCell="E5" sqref="E5:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2654,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2593,24 +2673,24 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="E7" s="13"/>
@@ -2628,64 +2708,61 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="C4:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+    <row r="4" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:D7"/>
+  <mergeCells count="1">
     <mergeCell ref="F4:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Desktop\Smart_Scheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="2830"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
     <sheet name="Modules" sheetId="3" r:id="rId2"/>
-    <sheet name="Student Module Details" sheetId="2" r:id="rId3"/>
-    <sheet name="Instructor Module Details" sheetId="4" r:id="rId4"/>
+    <sheet name="Login" sheetId="7" r:id="rId3"/>
+    <sheet name="Student &amp; Instructor Module" sheetId="2" r:id="rId4"/>
     <sheet name="Admin Module Details" sheetId="5" r:id="rId5"/>
-    <sheet name="Additional Info" sheetId="6" r:id="rId6"/>
+    <sheet name="Owner" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
   <si>
     <t>Rooms</t>
   </si>
@@ -68,9 +58,6 @@
     <t>courseTitle</t>
   </si>
   <si>
-    <t>Select year and then select className according to this year. Show all courses in one Table with their Room Numbers, courseTitle, CourseCode, InstructorName and show Text "This Slot is Free" where no course found and show Break for break time</t>
-  </si>
-  <si>
     <t>Admin Panel</t>
   </si>
   <si>
@@ -83,30 +70,9 @@
     <t>Courses</t>
   </si>
   <si>
-    <t>Student Have an option to send FeedBack with its Name, className, Date and Issue. Also see its previous FeedBacks and their replies</t>
-  </si>
-  <si>
-    <t>Instructor Have an option to send FeedBack with its Name, Date and Issue. Also see its previous FeedBacks and their replies</t>
-  </si>
-  <si>
     <t>View TimeTables</t>
   </si>
   <si>
-    <t>View &amp; Send FeedBacks</t>
-  </si>
-  <si>
-    <t>DashBoard</t>
-  </si>
-  <si>
-    <t>View Previous TimeTables</t>
-  </si>
-  <si>
-    <t>View &amp; Reply on FeedBacks</t>
-  </si>
-  <si>
-    <t>Generate New TimeTable</t>
-  </si>
-  <si>
     <t>feedBackID</t>
   </si>
   <si>
@@ -170,9 +136,6 @@
     <t>Yes/No</t>
   </si>
   <si>
-    <t>Use Google Authentication for login</t>
-  </si>
-  <si>
     <t>issue</t>
   </si>
   <si>
@@ -182,9 +145,6 @@
     <t>roomID</t>
   </si>
   <si>
-    <t>TimeTable</t>
-  </si>
-  <si>
     <t>timeTableID</t>
   </si>
   <si>
@@ -206,9 +166,6 @@
     <t>degree</t>
   </si>
   <si>
-    <t>Bachelors</t>
-  </si>
-  <si>
     <t>Fall/Spring</t>
   </si>
   <si>
@@ -230,36 +187,9 @@
     <t>User Login with their email using Continue with Google</t>
   </si>
   <si>
-    <t>User Login with their email  using Continue with Google</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Search filter for course wise</t>
-  </si>
-  <si>
-    <t>Search or filter by datewise and issue wise</t>
-  </si>
-  <si>
-    <t>Seacrh filter by course wise</t>
-  </si>
-  <si>
-    <t>Search filter by datewise and issue wise</t>
-  </si>
-  <si>
-    <t>Select its year and enter its Name. Show all its own courses in one Table with their Room Numbers, Classname, Semester, courseTitle, CourseCode, show Text "This Slot is Free" where no course found and show Break</t>
-  </si>
-  <si>
     <t>Admin Login with their unique email  using Continue with Google</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Topbar -&gt; header searchbar,</t>
-  </si>
-  <si>
     <t>InstituteInformation</t>
   </si>
   <si>
@@ -287,9 +217,6 @@
     <t>Foreign Key from IntituteInformation</t>
   </si>
   <si>
-    <t>InstitutePayment</t>
-  </si>
-  <si>
     <t>paymentID</t>
   </si>
   <si>
@@ -303,13 +230,154 @@
   </si>
   <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>Foreign Key from FeedBack</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>TimeSlots</t>
+  </si>
+  <si>
+    <t>TimeSlot</t>
+  </si>
+  <si>
+    <t>timeSlotID</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add/ Update/DeleteRooms
+Classes
+Courses
+TimeSlots  </t>
+  </si>
+  <si>
+    <t>instituteType</t>
+  </si>
+  <si>
+    <t>School/ College/ University</t>
+  </si>
+  <si>
+    <t>Bachelors/Intermeditate/Matric</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>instructorName</t>
+  </si>
+  <si>
+    <t>Yes / No</t>
+  </si>
+  <si>
+    <t>Registration Form</t>
+  </si>
+  <si>
+    <t>FeedBacks</t>
+  </si>
+  <si>
+    <t>TimeTables</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Displayed Approved Institute Details</t>
+  </si>
+  <si>
+    <t>Approval Requests</t>
+  </si>
+  <si>
+    <t>courseType</t>
+  </si>
+  <si>
+    <t>Lab/Theory &amp; Optional for schools</t>
+  </si>
+  <si>
+    <t>Dashboard with graph and filters which show users, insitute analytics and also payment</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>instituteApproveStatus</t>
+  </si>
+  <si>
+    <t>institutePaymentStatus</t>
+  </si>
+  <si>
+    <t>Profile with extend Subscription</t>
+  </si>
+  <si>
+    <t>feedBackMsgStatus</t>
+  </si>
+  <si>
+    <t>Institute Users</t>
+  </si>
+  <si>
+    <t>Student &amp; Instructor Panel</t>
+  </si>
+  <si>
+    <t>InstituteSubscription</t>
+  </si>
+  <si>
+    <t>OwnerUser</t>
+  </si>
+  <si>
+    <t>Owner Users</t>
+  </si>
+  <si>
+    <t>Owner Dashboard</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Instructor Dashboard</t>
+  </si>
+  <si>
+    <t>Student Dashboard</t>
+  </si>
+  <si>
+    <t>pehle aik combobox show hoga jo institute ka generated year.</t>
+  </si>
+  <si>
+    <t>InstituteTimeTables</t>
+  </si>
+  <si>
+    <t>instituteTimeTableID</t>
+  </si>
+  <si>
+    <t>_( instituteTimeTableID + InstituteID + Year)</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>currentStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,8 +439,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +495,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -410,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -426,7 +536,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,11 +563,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,10 +614,302 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7744</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3949390" y="906037"/>
+          <a:ext cx="2640671" cy="1115122"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7744</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3949390" y="1432622"/>
+          <a:ext cx="2640671" cy="588537"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3949390" y="2021159"/>
+          <a:ext cx="2632927" cy="7744"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>650487</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642744</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108415</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3941646" y="2028903"/>
+          <a:ext cx="2625183" cy="596280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>650488</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3949390" y="2013415"/>
+          <a:ext cx="2625183" cy="1169329"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>402683</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108415</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="852734" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010305" y="1076403"/>
+          <a:ext cx="852734" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>No Account</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -515,7 +947,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -621,7 +1053,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,7 +1195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -772,18 +1204,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:Y37"/>
+  <dimension ref="B2:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="51" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
@@ -792,43 +1224,49 @@
     <col min="12" max="12" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:58" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="N2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="N2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="R2" s="8" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:58" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -838,301 +1276,360 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:58" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+    </row>
+    <row r="5" spans="2:58" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="5"/>
+        <v>30</v>
+      </c>
       <c r="R5" s="5" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="BD5" s="17"/>
+      <c r="BE5" s="17"/>
+      <c r="BF5" s="17"/>
+    </row>
+    <row r="6" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="R6" s="5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="5"/>
+        <v>45</v>
+      </c>
       <c r="R7" s="5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+    </row>
+    <row r="8" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="R8" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+    </row>
+    <row r="9" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
       <c r="R9" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1140,19 +1637,12 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1166,7 +1656,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1191,13 +1681,11 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1216,157 +1704,237 @@
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="5"/>
+      <c r="J17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
       <c r="R17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="X17" s="5"/>
     </row>
     <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="5"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
     <row r="20" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>30</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="5"/>
       <c r="R21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="5"/>
       <c r="R22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>28</v>
+      </c>
       <c r="F23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="T23" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Y23" s="5"/>
     </row>
@@ -1374,26 +1942,67 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Y24" s="5"/>
     </row>
     <row r="25" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="Y25" s="5"/>
     </row>
     <row r="26" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
@@ -1402,8 +2011,6 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -1422,28 +2029,29 @@
       <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="F29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="5"/>
+      <c r="J29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
       <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -1459,9 +2067,6 @@
       <c r="Y30" s="5"/>
     </row>
     <row r="31" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1485,17 +2090,26 @@
       <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -1510,19 +2124,24 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+    <row r="33" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -1538,18 +2157,22 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+    <row r="34" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -1564,18 +2187,24 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+    <row r="35" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -1590,24 +2219,24 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>38</v>
-      </c>
+    <row r="36" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -1622,27 +2251,39 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
+    <row r="37" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B33:D34"/>
+  <mergeCells count="12">
+    <mergeCell ref="J2:L3"/>
     <mergeCell ref="B17:D18"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="N2:P3"/>
     <mergeCell ref="F17:H18"/>
+    <mergeCell ref="R17:T18"/>
+    <mergeCell ref="J29:L30"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="N17:P18"/>
     <mergeCell ref="F2:H3"/>
     <mergeCell ref="B2:D3"/>
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="R17:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1651,21 +2292,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="69" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.4140625" customWidth="1"/>
+    <col min="12" max="12" width="17.08203125" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1677,10 +2321,10 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1692,91 +2336,102 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="I6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="2"/>
       <c r="E9" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="H9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="J10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="10"/>
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="2"/>
       <c r="E11" s="10" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
@@ -1788,13 +2443,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="10"/>
+      <c r="I12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
@@ -1806,11 +2460,12 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
@@ -1822,13 +2477,12 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="10"/>
+      <c r="I14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="N14" s="6"/>
       <c r="O14" s="2"/>
     </row>
@@ -1840,7 +2494,14 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="23"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
@@ -1852,11 +2513,14 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="K16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="10"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -1865,14 +2529,15 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
@@ -1885,9 +2550,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="10"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1897,11 +2563,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1917,7 +2582,6 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1929,11 +2593,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2069,38 +2732,156 @@
       <c r="O29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="J17:M17"/>
+  <mergeCells count="17">
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="E6:F7"/>
-    <mergeCell ref="I6:N7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="B2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="82" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K5" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="E7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="K8" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="K11" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="K14" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="K17" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:F16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="78" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L11"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -2143,220 +2924,274 @@
     </row>
     <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="H5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="K5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="13"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="H13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="13"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E20" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H5:I11"/>
+  <mergeCells count="5">
     <mergeCell ref="B2:R3"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="E5:F18"/>
-    <mergeCell ref="E20:F33"/>
-    <mergeCell ref="H13:I26"/>
-    <mergeCell ref="K5:L11"/>
+    <mergeCell ref="B5:C13"/>
+    <mergeCell ref="B15:C24"/>
+    <mergeCell ref="E5:F13"/>
+    <mergeCell ref="E15:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:R27"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="66" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2394,223 +3229,24 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="H5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="5:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="H5:I11"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="E5:F18"/>
-    <mergeCell ref="E21:F27"/>
-    <mergeCell ref="H14:I20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:R7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="60" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="E5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:18" ht="70.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="E7" s="13"/>
@@ -2633,7 +3269,7 @@
   <dimension ref="C4:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2642,50 +3278,47 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:D7"/>
+  <mergeCells count="1">
     <mergeCell ref="F4:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMLS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maaz/Desktop/Smart_Scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466A5C9-6CF2-654B-BFF5-E713F003D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="2830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -355,9 +356,6 @@
     <t>Student Dashboard</t>
   </si>
   <si>
-    <t>pehle aik combobox show hoga jo institute ka generated year.</t>
-  </si>
-  <si>
     <t>InstituteTimeTables</t>
   </si>
   <si>
@@ -371,12 +369,15 @@
   </si>
   <si>
     <t>currentStatus</t>
+  </si>
+  <si>
+    <t>pehle aik combobox show hoga jo institute ka generated timetable ma sa session dekhya ga.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -520,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -539,63 +540,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,7 +626,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -678,7 +679,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -725,7 +732,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -772,7 +785,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -819,7 +838,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -861,7 +886,13 @@
     <xdr:ext cx="852734" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1202,18 +1233,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="51" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:H36"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -1232,58 +1263,58 @@
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:58" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="N2" s="8" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="N2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="R2" s="8" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="2:58" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="2:58" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="2:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" spans="2:58" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1296,11 +1327,11 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-    </row>
-    <row r="5" spans="2:58" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+    </row>
+    <row r="5" spans="2:58" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1348,11 +1379,11 @@
       <c r="T5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="17"/>
-    </row>
-    <row r="6" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+    </row>
+    <row r="6" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1393,7 +1424,7 @@
       </c>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1472,7 @@
       <c r="BE7" s="5"/>
       <c r="BF7" s="5"/>
     </row>
-    <row r="8" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
@@ -1485,7 +1516,7 @@
       <c r="BD8" s="5"/>
       <c r="BE8" s="5"/>
     </row>
-    <row r="9" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1522,7 +1553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1590,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1593,7 +1624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1615,7 +1646,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
         <v>94</v>
@@ -1638,7 +1669,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1656,7 +1687,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1681,7 +1712,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:58" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1703,54 +1734,54 @@
       <c r="T16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="N17" s="8" t="s">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="N17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="R17" s="8" t="s">
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1765,7 +1796,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1813,7 +1844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1855,7 +1886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +1925,7 @@
       <c r="T22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
@@ -1938,7 +1969,7 @@
       </c>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1975,7 +2006,7 @@
       </c>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="J25" s="5"/>
@@ -2002,11 +2033,11 @@
       </c>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2017,7 +2048,7 @@
       <c r="U27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2028,30 +2059,30 @@
       <c r="I28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
-      <c r="F29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="J29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E30" s="5"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2066,7 +2097,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2089,10 +2120,10 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>27</v>
@@ -2124,7 +2155,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
         <v>54</v>
@@ -2157,7 +2188,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
         <v>43</v>
@@ -2187,10 +2218,10 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>29</v>
@@ -2219,10 +2250,10 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>29</v>
@@ -2251,7 +2282,7 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="J37" s="5" t="s">
         <v>81</v>
       </c>
@@ -2259,7 +2290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="5:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="J38" s="5" t="s">
         <v>82</v>
       </c>
@@ -2288,99 +2319,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K16" sqref="K16:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.4140625" customWidth="1"/>
-    <col min="12" max="12" width="17.08203125" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="18"/>
+      <c r="H6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="B9" s="10" t="s">
+      <c r="L6" s="19"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>84</v>
@@ -2389,15 +2420,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2409,33 +2440,33 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.5">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2447,12 +2478,12 @@
         <v>69</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2464,12 +2495,12 @@
         <v>85</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2486,7 +2517,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2498,14 +2529,14 @@
         <v>98</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="23"/>
+      <c r="L15" s="17"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2517,31 +2548,31 @@
         <v>96</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="16"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="16"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2550,21 +2581,21 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
@@ -2573,7 +2604,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2588,13 +2619,13 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2603,7 +2634,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2619,7 +2650,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2635,7 +2666,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2651,7 +2682,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2667,7 +2698,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2683,7 +2714,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2699,7 +2730,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2715,7 +2746,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2733,11 +2764,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K9:L13"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="B2:L3"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F21:G21"/>
@@ -2747,9 +2776,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K9:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2757,107 +2788,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="82" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="K5" s="25" t="s">
+    <row r="2" spans="3:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="E7" s="26" t="s">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="K8" s="25" t="s">
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="K8" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="K11" s="25" t="s">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="K11" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="K14" s="25" t="s">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="K14" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="K17" s="25" t="s">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="K17" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2869,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:R33"/>
   <sheetViews>
@@ -2877,294 +2908,294 @@
       <selection activeCell="B5" sqref="B5:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+    </row>
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="E5" s="13" t="s">
+    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3179,78 +3210,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:R7"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:18" ht="70.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:18" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3264,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="C4:G11"/>
   <sheetViews>
@@ -3272,50 +3303,50 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maaz/Desktop/Smart_Scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466A5C9-6CF2-654B-BFF5-E713F003D110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13679830-7C28-1742-921B-54B349BE299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Student &amp; Instructor Module" sheetId="2" r:id="rId4"/>
     <sheet name="Admin Module Details" sheetId="5" r:id="rId5"/>
     <sheet name="Owner" sheetId="6" r:id="rId6"/>
+    <sheet name="shared" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="134">
   <si>
     <t>Rooms</t>
   </si>
@@ -188,9 +189,6 @@
     <t>User Login with their email using Continue with Google</t>
   </si>
   <si>
-    <t>Admin Login with their unique email  using Continue with Google</t>
-  </si>
-  <si>
     <t>InstituteInformation</t>
   </si>
   <si>
@@ -254,12 +252,6 @@
     <t>endTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Add/ Update/DeleteRooms
-Classes
-Courses
-TimeSlots  </t>
-  </si>
-  <si>
     <t>instituteType</t>
   </si>
   <si>
@@ -371,14 +363,83 @@
     <t>currentStatus</t>
   </si>
   <si>
-    <t>pehle aik combobox show hoga jo institute ka generated timetable ma sa session dekhya ga.</t>
+    <t>top per aik combobox show hoga jo institute ka generated timetable ma sa session dekhya ga. Aur nicha dashboard per ussa latest us university ka ccomplete time table ddekhe ga. Aur search option hogi jo filter by class and filter by teacher dekhya ga</t>
+  </si>
+  <si>
+    <t>aik menu hogi jisma user as a cchat users hr feedback dekkhya ga aur specfic selecct krna per ussa baat kra ga</t>
+  </si>
+  <si>
+    <t>top per aik combobox show hoga jo institute ka generated timetable ma sa session dekhya ga. Aur nicha dashboard per ussa latest university ka apna time table ddekhe ga. Aur search option hogi jo filter by class and filter by teacher dekhya ga</t>
+  </si>
+  <si>
+    <t>menus</t>
+  </si>
+  <si>
+    <t>user see previous rooms</t>
+  </si>
+  <si>
+    <t>add new rooms</t>
+  </si>
+  <si>
+    <t>delete rooms</t>
+  </si>
+  <si>
+    <t>update room number and its status</t>
+  </si>
+  <si>
+    <t>user see previous classes</t>
+  </si>
+  <si>
+    <t>add new classes</t>
+  </si>
+  <si>
+    <t>delete classes</t>
+  </si>
+  <si>
+    <t>update class details</t>
+  </si>
+  <si>
+    <t>user see previous courses</t>
+  </si>
+  <si>
+    <t>add new courses</t>
+  </si>
+  <si>
+    <t>delete courses</t>
+  </si>
+  <si>
+    <t>update courses details</t>
+  </si>
+  <si>
+    <t>user see previous timeslots</t>
+  </si>
+  <si>
+    <t>add new timeslots but not repeadtly means only 7 days</t>
+  </si>
+  <si>
+    <t>update timeslots details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete update timeslots details	</t>
+  </si>
+  <si>
+    <t>user see previous users</t>
+  </si>
+  <si>
+    <t>add new users</t>
+  </si>
+  <si>
+    <t>delete users</t>
+  </si>
+  <si>
+    <t>update users details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,8 +531,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +576,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -521,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -562,20 +636,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -591,6 +665,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,7 +1324,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="60" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -1277,7 +1364,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1292,7 +1379,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="R2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
@@ -1343,7 +1430,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>27</v>
@@ -1371,7 +1458,7 @@
         <v>30</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>27</v>
@@ -1393,7 +1480,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>28</v>
@@ -1414,10 +1501,10 @@
         <v>28</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>28</v>
@@ -1434,13 +1521,13 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>3</v>
@@ -1462,7 +1549,7 @@
         <v>45</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>28</v>
@@ -1481,20 +1568,20 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
@@ -1507,7 +1594,7 @@
         <v>46</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>28</v>
@@ -1526,7 +1613,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>28</v>
@@ -1544,13 +1631,13 @@
       </c>
       <c r="P9" s="5"/>
       <c r="R9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:58" ht="19" x14ac:dyDescent="0.25">
@@ -1565,13 +1652,13 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1592,36 +1679,36 @@
     </row>
     <row r="11" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:58" ht="19" x14ac:dyDescent="0.25">
@@ -1630,13 +1717,13 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1649,13 +1736,13 @@
     <row r="13" spans="2:58" ht="19" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1736,12 +1823,12 @@
     </row>
     <row r="17" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="F17" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -1807,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>27</v>
@@ -1853,13 +1940,13 @@
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>35</v>
@@ -1895,7 +1982,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>32</v>
@@ -1933,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>27</v>
@@ -1959,13 +2046,13 @@
         <v>34</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y23" s="5"/>
     </row>
@@ -1977,13 +2064,13 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
@@ -1993,7 +2080,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>4</v>
@@ -2014,7 +2101,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>29</v>
@@ -2023,13 +2110,13 @@
         <v>34</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y25" s="5"/>
     </row>
@@ -2062,13 +2149,13 @@
     <row r="29" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
       <c r="F29" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="5"/>
       <c r="J29" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
@@ -2123,7 +2210,7 @@
     <row r="32" spans="2:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>27</v>
@@ -2158,13 +2245,13 @@
     <row r="33" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
@@ -2199,7 +2286,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>28</v>
@@ -2221,17 +2308,17 @@
     <row r="35" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>28</v>
@@ -2253,17 +2340,17 @@
     <row r="36" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>28</v>
@@ -2284,7 +2371,7 @@
     </row>
     <row r="37" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="J37" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>28</v>
@@ -2292,7 +2379,7 @@
     </row>
     <row r="38" spans="5:25" ht="19" x14ac:dyDescent="0.25">
       <c r="J38" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>28</v>
@@ -2324,7 +2411,7 @@
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:L16"/>
+      <selection activeCell="I9" sqref="I9:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2339,91 +2426,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
     <row r="6" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="H6" s="19" t="s">
+      <c r="F6" s="19"/>
+      <c r="H6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="19"/>
+      <c r="K6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="16"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="10"/>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="K9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="20"/>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2440,29 +2527,29 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="16"/>
+      <c r="B11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="18"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="16"/>
+      <c r="E11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
@@ -2475,11 +2562,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
@@ -2492,11 +2579,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
@@ -2509,7 +2596,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2526,13 +2613,13 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="17"/>
+      <c r="K15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="20"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
@@ -2545,13 +2632,13 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="16"/>
+      <c r="K16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="18"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -2560,15 +2647,15 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="16"/>
+      <c r="K17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="18"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
@@ -2581,10 +2668,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="K18" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="L18" s="16"/>
+      <c r="K18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="18"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2594,8 +2681,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
@@ -2624,8 +2711,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2764,11 +2851,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="E6:F7"/>
@@ -2776,6 +2858,11 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K15:L15"/>
@@ -2803,7 +2890,7 @@
     <row r="2" spans="3:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
@@ -2816,7 +2903,7 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="K8" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
@@ -2831,7 +2918,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="K11" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
@@ -2852,7 +2939,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="K14" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.2">
@@ -2871,7 +2958,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="K17" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.2">
@@ -2902,17 +2989,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:R33"/>
+  <dimension ref="B2:R32"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2921,15 +3008,15 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
     </row>
     <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
@@ -2940,28 +3027,26 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="E5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="H5" s="13"/>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
@@ -2970,240 +3055,180 @@
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="H6" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="23"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+    <row r="20" spans="5:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+    <row r="21" spans="5:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.2">
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.2">
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.2">
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="B5:C13"/>
-    <mergeCell ref="B15:C24"/>
-    <mergeCell ref="E5:F13"/>
-    <mergeCell ref="E15:F24"/>
+  <mergeCells count="3">
+    <mergeCell ref="B5:C16"/>
+    <mergeCell ref="H6:I18"/>
+    <mergeCell ref="B2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3212,15 +3237,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:R7"/>
+  <dimension ref="A2:X19"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
@@ -3240,8 +3273,14 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
-    </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+    </row>
+    <row r="3" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3259,35 +3298,188 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
-    </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="E5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="2:18" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+    </row>
+    <row r="4" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:24" ht="37" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="E5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="K5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="N5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="29"/>
+      <c r="Q5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="T5" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="29"/>
+      <c r="W5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" s="29"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="E7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="H7" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="K7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="Q7" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="30"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="E8" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="K8" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="Q8" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="R8" s="30"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="E9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="H9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="K9" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="Q9" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="30"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="E10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="H10" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="K10" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="30"/>
+      <c r="Q10" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="E5:F7"/>
+  <mergeCells count="29">
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="B2:X3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3354,4 +3546,64 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6B6C85-0C6E-0A4C-B8F8-4F0998B314BA}">
+  <dimension ref="D4:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29525"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maaz/Desktop/Smart_Scheduler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Smart_Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13679830-7C28-1742-921B-54B349BE299C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3AFC24-581E-4317-B859-9E737F4F2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
   <si>
     <t>Rooms</t>
   </si>
@@ -219,9 +219,6 @@
     <t>paymentID</t>
   </si>
   <si>
-    <t>Monthly/ Yearly</t>
-  </si>
-  <si>
     <t>paymentDate</t>
   </si>
   <si>
@@ -291,12 +288,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Displayed Approved Institute Details</t>
-  </si>
-  <si>
-    <t>Approval Requests</t>
-  </si>
-  <si>
     <t>courseType</t>
   </si>
   <si>
@@ -309,12 +300,6 @@
     <t>Payments</t>
   </si>
   <si>
-    <t>instituteApproveStatus</t>
-  </si>
-  <si>
-    <t>institutePaymentStatus</t>
-  </si>
-  <si>
     <t>Profile with extend Subscription</t>
   </si>
   <si>
@@ -433,6 +418,9 @@
   </si>
   <si>
     <t>update users details</t>
+  </si>
+  <si>
+    <t>Monthly/ Yearly/Trial</t>
   </si>
 </sst>
 </file>
@@ -595,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -630,6 +618,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,39 +637,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,84 +1309,84 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:BF38"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView zoomScale="60" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" customWidth="1"/>
+    <col min="12" max="12" width="36.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:58" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="N2" s="15" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="N2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="R2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="2:58" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="2:58" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="R2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+    </row>
+    <row r="3" spans="2:58" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+    </row>
+    <row r="4" spans="2:58" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1418,7 +1403,7 @@
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
     </row>
-    <row r="5" spans="2:58" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:58" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1433,7 +1418,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>30</v>
@@ -1458,7 +1443,7 @@
         <v>30</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>27</v>
@@ -1470,7 +1455,7 @@
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
     </row>
-    <row r="6" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1501,17 +1486,17 @@
         <v>28</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1549,7 +1534,7 @@
         <v>45</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>28</v>
@@ -1559,7 +1544,7 @@
       <c r="BE7" s="5"/>
       <c r="BF7" s="5"/>
     </row>
-    <row r="8" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
@@ -1578,7 +1563,7 @@
         <v>53</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>60</v>
@@ -1594,7 +1579,7 @@
         <v>46</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>28</v>
@@ -1603,7 +1588,7 @@
       <c r="BD8" s="5"/>
       <c r="BE8" s="5"/>
     </row>
-    <row r="9" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1634,13 +1619,13 @@
         <v>53</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1652,13 +1637,13 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1677,25 +1662,25 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1705,26 +1690,20 @@
         <v>53</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1733,17 +1712,10 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1756,11 +1728,12 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="I14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1774,7 +1747,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1799,7 +1772,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="2:58" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:58" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1821,54 +1794,54 @@
       <c r="T16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+    <row r="17" spans="2:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="N17" s="15" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="N17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="R17" s="15" t="s">
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="R17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-    </row>
-    <row r="19" spans="2:25" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="2:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1883,7 +1856,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1931,7 +1904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1916,7 @@
         <v>53</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>60</v>
@@ -1973,7 +1946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1982,7 +1955,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>32</v>
@@ -2012,7 +1985,7 @@
       <c r="T22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +1993,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>27</v>
@@ -2046,17 +2019,17 @@
         <v>34</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2067,7 +2040,7 @@
         <v>53</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>60</v>
@@ -2080,7 +2053,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>4</v>
@@ -2093,7 +2066,7 @@
       </c>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="J25" s="5"/>
@@ -2101,7 +2074,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>29</v>
@@ -2113,18 +2086,18 @@
         <v>53</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>60</v>
       </c>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2135,7 +2108,7 @@
       <c r="U27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2146,30 +2119,30 @@
       <c r="I28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E29" s="5"/>
-      <c r="F29" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="F29" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="J29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E30" s="5"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2184,7 +2157,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2207,10 +2180,10 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="2:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E32" s="5"/>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>27</v>
@@ -2242,13 +2215,13 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="5:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>60</v>
@@ -2275,7 +2248,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="5:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
         <v>43</v>
@@ -2286,7 +2259,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>28</v>
@@ -2305,20 +2278,20 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="5:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>28</v>
@@ -2337,20 +2310,20 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="5:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>28</v>
@@ -2369,17 +2342,17 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="5:25" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:25" ht="18" x14ac:dyDescent="0.35">
       <c r="J37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="5:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="J38" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="5:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="J38" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>28</v>
@@ -2410,112 +2383,112 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I16"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.296875" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+    <row r="3" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="6" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="22"/>
+      <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="16"/>
+      <c r="K6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="18"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="2:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+    <row r="7" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="20"/>
+      <c r="K9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="21"/>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2527,33 +2500,33 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="18"/>
+    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="B11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="20"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="E11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2562,15 +2535,15 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2579,15 +2552,15 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2596,7 +2569,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2604,7 +2577,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2613,17 +2586,17 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L15" s="20"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2632,34 +2605,30 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="18"/>
+      <c r="K16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="20"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="18"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2668,21 +2637,17 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="K18" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" s="18"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
@@ -2691,7 +2656,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2706,13 +2671,13 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2721,7 +2686,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2737,7 +2702,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2753,7 +2718,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2769,7 +2734,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2785,7 +2750,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2801,7 +2766,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2817,7 +2782,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2833,7 +2798,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="21" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2850,7 +2815,7 @@
       <c r="O29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="E6:F7"/>
@@ -2863,8 +2828,6 @@
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K9:L13"/>
@@ -2882,98 +2845,98 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:11" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="K5" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E7" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="K8" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="K11" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="K14" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="K17" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
@@ -2995,232 +2958,232 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-    </row>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-    </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="2:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+    <row r="5" spans="2:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="H5" s="13"/>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="H6" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="23"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="24"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+    <row r="10" spans="2:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+    <row r="12" spans="2:18" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="5:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="5:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
@@ -3239,219 +3202,218 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="F1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-    </row>
-    <row r="3" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-    </row>
-    <row r="4" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:24" ht="37" x14ac:dyDescent="0.45">
-      <c r="A5" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:24" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="A5" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="H5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="K5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="N5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="Q5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="26"/>
+      <c r="T5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="26"/>
+      <c r="W5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" s="26"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="E7" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="E5" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="H5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="K5" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="N5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="29"/>
-      <c r="Q5" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="29"/>
-      <c r="T5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="U5" s="29"/>
-      <c r="W5" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" s="29"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="F7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="K7" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="Q7" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="27"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="E8" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="E7" s="30" t="s">
+      <c r="F8" s="27"/>
+      <c r="H8" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="I8" s="27"/>
+      <c r="K8" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="K7" s="30" t="s">
+      <c r="L8" s="27"/>
+      <c r="Q8" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="Q7" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="R7" s="30"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="E8" s="30" t="s">
+      <c r="F9" s="27"/>
+      <c r="H9" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="I9" s="27"/>
+      <c r="K9" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="Q9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="H10" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="K10" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="K8" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="Q8" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="R8" s="30"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="E9" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="H9" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="K9" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="Q9" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="R9" s="30"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="E10" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="H10" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="K10" s="30" t="s">
+      <c r="L10" s="27"/>
+      <c r="Q10" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="Q10" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="R10" s="30"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="R10" s="27"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K10:L10"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
@@ -3480,6 +3442,7 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3495,50 +3458,50 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="3:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="3:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="3:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3556,49 +3519,49 @@
       <selection activeCell="D4" sqref="D4:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D4" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Smart_Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3AFC24-581E-4317-B859-9E737F4F2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5C43DA-641B-40ED-8977-B726E2A9A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="131">
   <si>
     <t>Rooms</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Monthly/ Yearly/Trial</t>
+  </si>
+  <si>
+    <t>created_at</t>
   </si>
 </sst>
 </file>
@@ -622,11 +625,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -635,13 +638,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,10 +655,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1309,8 +1312,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:BF38"/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1343,48 +1346,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:58" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="N2" s="17" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="N2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="R2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="2:58" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4" spans="2:58" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="3"/>
@@ -1701,8 +1704,12 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1795,51 +1802,51 @@
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="2:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="F17" s="16" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="N17" s="17" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="N17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="R17" s="17" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="R17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
       <c r="X17" s="5"/>
     </row>
     <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
     </row>
     <row r="19" spans="2:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F19" s="3"/>
@@ -2121,28 +2128,28 @@
     </row>
     <row r="29" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E29" s="5"/>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
       <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E30" s="5"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2383,8 +2390,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2431,14 +2438,14 @@
       <c r="N3" s="11"/>
     </row>
     <row r="6" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="17"/>
       <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
@@ -2451,10 +2458,10 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="10"/>
@@ -2463,15 +2470,15 @@
       <c r="M7" s="10"/>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>81</v>
@@ -2480,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2500,29 +2507,29 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
@@ -2538,8 +2545,8 @@
         <v>67</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
@@ -2555,8 +2562,8 @@
         <v>82</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
@@ -2589,10 +2596,10 @@
         <v>91</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="16"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
@@ -2608,10 +2615,10 @@
         <v>89</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="16"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -2620,8 +2627,8 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2646,8 +2653,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
@@ -2676,8 +2683,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2816,13 +2823,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="H6:I7"/>
     <mergeCell ref="K6:L7"/>
     <mergeCell ref="B2:L3"/>
@@ -2831,6 +2831,13 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K9:L13"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3273,126 +3280,126 @@
       <c r="A5" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="27"/>
+      <c r="E5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="H5" s="26" t="s">
+      <c r="F5" s="27"/>
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="K5" s="26" t="s">
+      <c r="I5" s="27"/>
+      <c r="K5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="N5" s="26" t="s">
+      <c r="L5" s="27"/>
+      <c r="N5" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="Q5" s="26" t="s">
+      <c r="O5" s="27"/>
+      <c r="Q5" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="T5" s="26" t="s">
+      <c r="R5" s="27"/>
+      <c r="T5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="26"/>
-      <c r="W5" s="26" t="s">
+      <c r="U5" s="27"/>
+      <c r="W5" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="X5" s="26"/>
+      <c r="X5" s="27"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="E7" s="27" t="s">
+      <c r="C7" s="26"/>
+      <c r="E7" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="F7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="K7" s="27" t="s">
+      <c r="I7" s="26"/>
+      <c r="K7" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="Q7" s="27" t="s">
+      <c r="L7" s="26"/>
+      <c r="Q7" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="R7" s="27"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="E8" s="27" t="s">
+      <c r="C8" s="26"/>
+      <c r="E8" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="H8" s="27" t="s">
+      <c r="F8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="K8" s="27" t="s">
+      <c r="I8" s="26"/>
+      <c r="K8" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="Q8" s="27" t="s">
+      <c r="L8" s="26"/>
+      <c r="Q8" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="27"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="26"/>
+      <c r="E9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="K9" s="27" t="s">
+      <c r="I9" s="26"/>
+      <c r="K9" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="Q9" s="27" t="s">
+      <c r="L9" s="26"/>
+      <c r="Q9" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="R9" s="27"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="C10" s="26"/>
+      <c r="E10" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="H10" s="27" t="s">
+      <c r="F10" s="26"/>
+      <c r="H10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="K10" s="27" t="s">
+      <c r="I10" s="26"/>
+      <c r="K10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="Q10" s="27" t="s">
+      <c r="L10" s="26"/>
+      <c r="Q10" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="R10" s="27"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17" s="1"/>
@@ -3414,11 +3421,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="B2:X3"/>
     <mergeCell ref="B7:C7"/>
@@ -3435,14 +3445,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Smart_Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5C43DA-641B-40ED-8977-B726E2A9A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5055C45-6440-4FD9-A691-8297EC169468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,11 +625,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -638,13 +638,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1313,7 +1313,7 @@
   <dimension ref="B2:BF38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1346,48 +1346,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:58" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="N2" s="22" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="N2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="R2" s="22" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="R2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="2:58" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="2:58" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="3"/>
@@ -1802,51 +1802,51 @@
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="2:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="F17" s="21" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="N17" s="22" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="N17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="R17" s="22" t="s">
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="R17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
       <c r="X17" s="5"/>
     </row>
     <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
     </row>
     <row r="19" spans="2:25" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F19" s="3"/>
@@ -2128,28 +2128,28 @@
     </row>
     <row r="29" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E29" s="5"/>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
       <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="2:25" ht="18" x14ac:dyDescent="0.35">
       <c r="E30" s="5"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2438,14 +2438,14 @@
       <c r="N3" s="11"/>
     </row>
     <row r="6" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="22"/>
       <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
@@ -2458,10 +2458,10 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="10"/>
@@ -2470,15 +2470,15 @@
       <c r="M7" s="10"/>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>81</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2507,29 +2507,29 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
@@ -2545,8 +2545,8 @@
         <v>67</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
@@ -2562,8 +2562,8 @@
         <v>82</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
@@ -2596,10 +2596,10 @@
         <v>91</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="20"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>89</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="20"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -2627,8 +2627,8 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2653,8 +2653,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
@@ -2683,8 +2683,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2823,6 +2823,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="H6:I7"/>
     <mergeCell ref="K6:L7"/>
     <mergeCell ref="B2:L3"/>
@@ -2831,13 +2838,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K9:L13"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3421,14 +3421,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T5:U5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="B2:X3"/>
     <mergeCell ref="B7:C7"/>
@@ -3445,11 +3442,14 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Smart_Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5055C45-6440-4FD9-A691-8297EC169468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD9C45E-8B6E-499B-8F2A-F0E718591709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -638,13 +644,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1312,8 +1312,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="64" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2406,79 +2406,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
     <row r="6" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="H6" s="18" t="s">
+      <c r="F6" s="19"/>
+      <c r="H6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="10"/>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>81</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2507,29 +2507,29 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
@@ -2545,8 +2545,8 @@
         <v>67</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
@@ -2562,8 +2562,8 @@
         <v>82</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
@@ -2596,10 +2596,10 @@
         <v>91</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="18"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>89</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="18"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -2627,8 +2627,8 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2653,8 +2653,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
@@ -2683,8 +2683,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2823,13 +2823,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="H6:I7"/>
     <mergeCell ref="K6:L7"/>
     <mergeCell ref="B2:L3"/>
@@ -2838,6 +2831,13 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K9:L13"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3421,11 +3421,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="B2:X3"/>
     <mergeCell ref="B7:C7"/>
@@ -3442,14 +3445,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Smart Scheduler.xlsx
+++ b/Smart Scheduler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Smart_Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD9C45E-8B6E-499B-8F2A-F0E718591709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ADF698-B088-4C71-901F-13913413EB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,12 +631,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -644,7 +638,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1312,8 +1312,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="64" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2406,79 +2406,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
     <row r="6" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="22"/>
+      <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="10"/>
     </row>
     <row r="9" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>81</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2507,29 +2507,29 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="N10" s="6"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
@@ -2545,8 +2545,8 @@
         <v>67</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
     </row>
@@ -2562,8 +2562,8 @@
         <v>82</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
@@ -2596,10 +2596,10 @@
         <v>91</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="20"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>89</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="20"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -2627,8 +2627,8 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2653,8 +2653,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
@@ -2683,8 +2683,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -2823,6 +2823,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="H6:I7"/>
     <mergeCell ref="K6:L7"/>
     <mergeCell ref="B2:L3"/>
@@ -2831,13 +2838,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K9:L13"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3421,14 +3421,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T5:U5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="B2:X3"/>
     <mergeCell ref="B7:C7"/>
@@ -3445,11 +3442,14 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
